--- a/Inferno/Logs/Expense Sheet Infernos.xlsx
+++ b/Inferno/Logs/Expense Sheet Infernos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsal\OneDrive\Desktop\TechWiz-IOT-2023-main\Inferno\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B24C7-E4EC-4A33-A44B-0B008E2DD293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55DBB90-F8A6-4BFE-A7E7-E976359B86F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D07FA7E-AA25-4F52-8BD3-74FFB8589F97}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,22 +537,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,9 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -588,145 +726,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1045,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8048F-48C1-4FDE-BDFC-CCC4E181859D}">
   <dimension ref="D1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,846 +1062,944 @@
   <sheetData>
     <row r="1" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="8" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="8" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="8" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="10"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="60"/>
     </row>
     <row r="7" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="22">
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="52">
         <v>2</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="18">
+      <c r="L8" s="52"/>
+      <c r="M8" s="34">
         <v>220</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18">
+      <c r="N8" s="34"/>
+      <c r="O8" s="34">
         <f>SUM(K8*M8)</f>
         <v>440</v>
       </c>
-      <c r="P8" s="18"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6">
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="53">
         <v>1</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7">
+      <c r="L9" s="53"/>
+      <c r="M9" s="22">
         <v>850</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22">
         <f>SUM(K9*M9)</f>
         <v>850</v>
       </c>
-      <c r="P9" s="7"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6">
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="53">
         <v>1</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7">
+      <c r="L10" s="53"/>
+      <c r="M10" s="22">
         <v>150</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7">
+      <c r="N10" s="22"/>
+      <c r="O10" s="22">
         <f t="shared" ref="O10:O24" si="0">SUM(K10*M10)</f>
         <v>150</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="30">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12">
         <v>2</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="26">
+      <c r="L11" s="13"/>
+      <c r="M11" s="7">
         <v>170</v>
       </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="7">
+      <c r="N11" s="8"/>
+      <c r="O11" s="22">
         <f t="shared" ref="O11" si="1">SUM(K11*M11)</f>
         <v>340</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6">
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="53">
         <v>2</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7">
+      <c r="L12" s="53"/>
+      <c r="M12" s="22">
         <v>200</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7">
+      <c r="N12" s="22"/>
+      <c r="O12" s="22">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="P12" s="7"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="30">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12">
         <v>1</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="26">
+      <c r="L13" s="13"/>
+      <c r="M13" s="7">
         <v>350</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="26">
+      <c r="N13" s="8"/>
+      <c r="O13" s="7">
         <f t="shared" ref="O13" si="2">SUM(K13*M13)</f>
         <v>350</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>6</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6">
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="53">
         <v>1</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7">
+      <c r="L14" s="53"/>
+      <c r="M14" s="22">
         <v>450</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7">
+      <c r="N14" s="22"/>
+      <c r="O14" s="22">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="P14" s="7"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>7</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6">
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="53">
         <v>1</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7">
+      <c r="L15" s="53"/>
+      <c r="M15" s="22">
         <v>180</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7">
+      <c r="N15" s="22"/>
+      <c r="O15" s="22">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="P15" s="7"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>8</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6">
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="53">
         <v>3</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7">
+      <c r="L16" s="53"/>
+      <c r="M16" s="22">
         <v>170</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7">
+      <c r="N16" s="22"/>
+      <c r="O16" s="22">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="P16" s="7"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" s="2">
         <v>9</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6">
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="53">
         <v>1</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7">
+      <c r="L17" s="53"/>
+      <c r="M17" s="22">
         <v>200</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7">
+      <c r="N17" s="22"/>
+      <c r="O17" s="22">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="P17" s="7"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>10</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="30">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12">
         <v>1</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="26">
+      <c r="L18" s="13"/>
+      <c r="M18" s="7">
         <v>20</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="26">
+      <c r="N18" s="8"/>
+      <c r="O18" s="7">
         <f t="shared" ref="O18" si="3">SUM(K18*M18)</f>
         <v>20</v>
       </c>
-      <c r="P18" s="27"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>11</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6">
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="53">
         <v>1</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7">
+      <c r="L19" s="53"/>
+      <c r="M19" s="22">
         <v>90</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7">
+      <c r="N19" s="22"/>
+      <c r="O19" s="22">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="P19" s="7"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>12</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6">
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="53">
         <v>1</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7">
+      <c r="L20" s="53"/>
+      <c r="M20" s="22">
         <v>50</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7">
+      <c r="N20" s="22"/>
+      <c r="O20" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="P20" s="7"/>
+      <c r="P20" s="22"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" s="2">
         <v>13</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6">
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="53">
         <v>1</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7">
+      <c r="L21" s="53"/>
+      <c r="M21" s="22">
         <v>100</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7">
+      <c r="N21" s="22"/>
+      <c r="O21" s="22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="P21" s="7"/>
+      <c r="P21" s="22"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" s="2">
         <v>14</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="30">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12">
         <v>1</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="26">
+      <c r="L22" s="13"/>
+      <c r="M22" s="7">
         <v>300</v>
       </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="26">
+      <c r="N22" s="8"/>
+      <c r="O22" s="7">
         <f t="shared" ref="O22" si="4">SUM(K22*M22)</f>
         <v>300</v>
       </c>
-      <c r="P22" s="27"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" s="2">
         <v>15</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="30">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12">
         <v>1</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="26">
+      <c r="L23" s="13"/>
+      <c r="M23" s="7">
         <v>700</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="26">
+      <c r="N23" s="8"/>
+      <c r="O23" s="7">
         <f t="shared" ref="O23" si="5">SUM(K23*M23)</f>
         <v>700</v>
       </c>
-      <c r="P23" s="27"/>
+      <c r="P23" s="8"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <v>14</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6">
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="53">
         <v>1</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="7">
+      <c r="L24" s="53"/>
+      <c r="M24" s="22">
         <v>25</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7">
+      <c r="N24" s="22"/>
+      <c r="O24" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P24" s="7"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D25" s="4">
         <v>15</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="28">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="54">
         <v>1</v>
       </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="44">
-        <v>0</v>
-      </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="44">
-        <v>0</v>
-      </c>
-      <c r="P25" s="45"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="20">
+        <v>1500</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="20">
+        <v>1500</v>
+      </c>
+      <c r="P25" s="21"/>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
         <v>16</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6">
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="53">
         <v>1</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7">
+      <c r="L26" s="53"/>
+      <c r="M26" s="22">
         <v>315</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7">
+      <c r="N26" s="22"/>
+      <c r="O26" s="22">
         <f t="shared" ref="O26" si="6">SUM(K26*M26)</f>
         <v>315</v>
       </c>
-      <c r="P26" s="7"/>
+      <c r="P26" s="22"/>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
         <v>17</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6">
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="53">
         <v>1</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7">
+      <c r="L27" s="53"/>
+      <c r="M27" s="22">
         <v>100</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7">
+      <c r="N27" s="22"/>
+      <c r="O27" s="22">
         <f t="shared" ref="O27" si="7">SUM(K27*M27)</f>
         <v>100</v>
       </c>
-      <c r="P27" s="7"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K28" s="46" t="s">
+      <c r="K28" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="48">
+      <c r="L28" s="37"/>
+      <c r="M28" s="38">
         <f>SUM(O8:P27)</f>
-        <v>5570</v>
-      </c>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
+        <v>7070</v>
+      </c>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K29" s="40"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="43"/>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K30" s="38" t="s">
+      <c r="K30" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="39"/>
-      <c r="M30" s="54">
+      <c r="L30" s="24"/>
+      <c r="M30" s="44">
         <f>SUM(M28/6+52.5)</f>
-        <v>980.83333333333337</v>
-      </c>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="56"/>
+        <v>1230.8333333333333</v>
+      </c>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="46"/>
     </row>
     <row r="31" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K31" s="40"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="49"/>
     </row>
     <row r="33" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34" t="s">
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34" t="s">
+      <c r="K34" s="27"/>
+      <c r="L34" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34" t="s">
+      <c r="M34" s="27"/>
+      <c r="N34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="42"/>
+      <c r="O34" s="28"/>
     </row>
     <row r="35" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="33"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="43"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="30"/>
     </row>
     <row r="36" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="36">
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="31">
         <f>SUM(M28/6+52.5)</f>
-        <v>980.83333333333337</v>
-      </c>
-      <c r="K36" s="36"/>
-      <c r="L36" s="18">
+        <v>1230.8333333333333</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="34">
         <v>0</v>
       </c>
-      <c r="M36" s="18"/>
-      <c r="N36" s="36">
+      <c r="M36" s="34"/>
+      <c r="N36" s="31">
         <f>SUM(J36-L36)</f>
-        <v>980.83333333333337</v>
-      </c>
-      <c r="O36" s="36"/>
+        <v>1230.8333333333333</v>
+      </c>
+      <c r="O36" s="31"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E37" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="36">
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="31">
         <f>SUM(M28/6+52.5)</f>
-        <v>980.83333333333337</v>
-      </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="7">
+        <v>1230.8333333333333</v>
+      </c>
+      <c r="K37" s="31"/>
+      <c r="L37" s="22">
         <v>0</v>
       </c>
-      <c r="M37" s="7"/>
-      <c r="N37" s="37">
+      <c r="M37" s="22"/>
+      <c r="N37" s="32">
         <f t="shared" ref="N37:N41" si="8">SUM(J37-L37)</f>
-        <v>980.83333333333337</v>
-      </c>
-      <c r="O37" s="37"/>
+        <v>1230.8333333333333</v>
+      </c>
+      <c r="O37" s="32"/>
     </row>
     <row r="38" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="37">
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="32">
         <f>SUM(M28/6+52.5)</f>
-        <v>980.83333333333337</v>
-      </c>
-      <c r="K38" s="37"/>
-      <c r="L38" s="7">
+        <v>1230.8333333333333</v>
+      </c>
+      <c r="K38" s="32"/>
+      <c r="L38" s="22">
         <v>5000</v>
       </c>
-      <c r="M38" s="7"/>
-      <c r="N38" s="37">
+      <c r="M38" s="22"/>
+      <c r="N38" s="32">
         <f t="shared" si="8"/>
-        <v>-4019.1666666666665</v>
-      </c>
-      <c r="O38" s="37"/>
+        <v>-3769.166666666667</v>
+      </c>
+      <c r="O38" s="32"/>
     </row>
     <row r="39" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E39" s="1">
         <v>4</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="37">
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="32">
         <f>SUM(M28/6+52.5)</f>
-        <v>980.83333333333337</v>
-      </c>
-      <c r="K39" s="37"/>
-      <c r="L39" s="7">
+        <v>1230.8333333333333</v>
+      </c>
+      <c r="K39" s="32"/>
+      <c r="L39" s="22">
         <v>5000</v>
       </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="37">
+      <c r="M39" s="22"/>
+      <c r="N39" s="32">
         <f t="shared" si="8"/>
-        <v>-4019.1666666666665</v>
-      </c>
-      <c r="O39" s="37"/>
+        <v>-3769.166666666667</v>
+      </c>
+      <c r="O39" s="32"/>
     </row>
     <row r="40" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E40" s="1">
         <v>5</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="37">
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="32">
         <f>SUM(M28/6+52.5)</f>
-        <v>980.83333333333337</v>
-      </c>
-      <c r="K40" s="37"/>
-      <c r="L40" s="7">
+        <v>1230.8333333333333</v>
+      </c>
+      <c r="K40" s="32"/>
+      <c r="L40" s="22">
         <v>0</v>
       </c>
-      <c r="M40" s="7"/>
-      <c r="N40" s="37">
+      <c r="M40" s="22"/>
+      <c r="N40" s="32">
         <f t="shared" si="8"/>
-        <v>980.83333333333337</v>
-      </c>
-      <c r="O40" s="37"/>
+        <v>1230.8333333333333</v>
+      </c>
+      <c r="O40" s="32"/>
     </row>
     <row r="41" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E41" s="1">
         <v>6</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="66">
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="33">
         <f>SUM(M28/6+52.5)</f>
-        <v>980.83333333333337</v>
-      </c>
-      <c r="K41" s="66"/>
-      <c r="L41" s="68">
+        <v>1230.8333333333333</v>
+      </c>
+      <c r="K41" s="33"/>
+      <c r="L41" s="35">
         <v>4000</v>
       </c>
-      <c r="M41" s="68"/>
-      <c r="N41" s="66">
+      <c r="M41" s="35"/>
+      <c r="N41" s="33">
         <f t="shared" si="8"/>
-        <v>-3019.1666666666665</v>
-      </c>
-      <c r="O41" s="66"/>
+        <v>-2769.166666666667</v>
+      </c>
+      <c r="O41" s="33"/>
     </row>
     <row r="42" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J42" s="67">
+      <c r="J42" s="68">
         <f>SUM(J36:K41)</f>
-        <v>5885</v>
-      </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="8">
+        <v>7384.9999999999991</v>
+      </c>
+      <c r="K42" s="69"/>
+      <c r="L42" s="70">
         <f>SUM(L36:M41)</f>
         <v>14000</v>
       </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="67">
+      <c r="M42" s="69"/>
+      <c r="N42" s="68">
         <f>SUM(N36,N37,N40)</f>
-        <v>2942.5</v>
-      </c>
-      <c r="O42" s="10"/>
+        <v>3692.5</v>
+      </c>
+      <c r="O42" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="D6:P7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="J34:K35"/>
+    <mergeCell ref="L34:M35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="N34:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="M28:P29"/>
+    <mergeCell ref="M30:P31"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
@@ -1920,104 +2024,6 @@
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="N34:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:P29"/>
-    <mergeCell ref="M30:P31"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="J34:K35"/>
-    <mergeCell ref="L34:M35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="D6:P7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inferno/Logs/Expense Sheet Infernos.xlsx
+++ b/Inferno/Logs/Expense Sheet Infernos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsal\OneDrive\Desktop\TechWiz-IOT-2023-main\Inferno\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55DBB90-F8A6-4BFE-A7E7-E976359B86F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58769A51-606A-42F3-938A-1547C6890B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D07FA7E-AA25-4F52-8BD3-74FFB8589F97}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Item</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Data Cable</t>
+  </si>
+  <si>
+    <t>Pi Camera Module</t>
+  </si>
+  <si>
+    <t>Audio Sensor</t>
   </si>
 </sst>
 </file>
@@ -537,17 +543,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -559,10 +607,121 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -581,159 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8048F-48C1-4FDE-BDFC-CCC4E181859D}">
-  <dimension ref="D1:P42"/>
+  <dimension ref="D1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,846 +1068,1004 @@
   <sheetData>
     <row r="1" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6" t="s">
+      <c r="N5" s="10"/>
+      <c r="O5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="5"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="60"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="63"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="52">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="22">
         <v>2</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="34">
+      <c r="L8" s="22"/>
+      <c r="M8" s="18">
         <v>220</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34">
+      <c r="N8" s="18"/>
+      <c r="O8" s="18">
         <f>SUM(K8*M8)</f>
         <v>440</v>
       </c>
-      <c r="P8" s="34"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="53">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="53"/>
-      <c r="M9" s="22">
+      <c r="L9" s="6"/>
+      <c r="M9" s="7">
         <v>850</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
         <f>SUM(K9*M9)</f>
         <v>850</v>
       </c>
-      <c r="P9" s="22"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="53">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6">
         <v>1</v>
       </c>
-      <c r="L10" s="53"/>
-      <c r="M10" s="22">
+      <c r="L10" s="6"/>
+      <c r="M10" s="7">
         <v>150</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
         <f t="shared" ref="O10:O24" si="0">SUM(K10*M10)</f>
         <v>150</v>
       </c>
-      <c r="P10" s="22"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="30">
         <v>2</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="7">
+      <c r="L11" s="31"/>
+      <c r="M11" s="26">
         <v>170</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="22">
+      <c r="N11" s="27"/>
+      <c r="O11" s="7">
         <f t="shared" ref="O11" si="1">SUM(K11*M11)</f>
         <v>340</v>
       </c>
-      <c r="P11" s="22"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="53">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6">
         <v>2</v>
       </c>
-      <c r="L12" s="53"/>
-      <c r="M12" s="22">
+      <c r="L12" s="6"/>
+      <c r="M12" s="7">
         <v>200</v>
       </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="P12" s="22"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="30">
         <v>1</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="7">
+      <c r="L13" s="31"/>
+      <c r="M13" s="26">
         <v>350</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="7">
+      <c r="N13" s="27"/>
+      <c r="O13" s="26">
         <f t="shared" ref="O13" si="2">SUM(K13*M13)</f>
         <v>350</v>
       </c>
-      <c r="P13" s="8"/>
+      <c r="P13" s="27"/>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>6</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="53">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6">
         <v>1</v>
       </c>
-      <c r="L14" s="53"/>
-      <c r="M14" s="22">
+      <c r="L14" s="6"/>
+      <c r="M14" s="7">
         <v>450</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="P14" s="22"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>7</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="53">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6">
         <v>1</v>
       </c>
-      <c r="L15" s="53"/>
-      <c r="M15" s="22">
+      <c r="L15" s="6"/>
+      <c r="M15" s="7">
         <v>180</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="P15" s="22"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>8</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="53">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6">
         <v>3</v>
       </c>
-      <c r="L16" s="53"/>
-      <c r="M16" s="22">
+      <c r="L16" s="6"/>
+      <c r="M16" s="7">
         <v>170</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22">
+      <c r="N16" s="7"/>
+      <c r="O16" s="7">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="P16" s="22"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" s="2">
         <v>9</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="53">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6">
         <v>1</v>
       </c>
-      <c r="L17" s="53"/>
-      <c r="M17" s="22">
+      <c r="L17" s="6"/>
+      <c r="M17" s="7">
         <v>200</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="P17" s="22"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>10</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="30">
         <v>1</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="7">
+      <c r="L18" s="31"/>
+      <c r="M18" s="26">
         <v>20</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="7">
+      <c r="N18" s="27"/>
+      <c r="O18" s="26">
         <f t="shared" ref="O18" si="3">SUM(K18*M18)</f>
         <v>20</v>
       </c>
-      <c r="P18" s="8"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>11</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="53">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6">
         <v>1</v>
       </c>
-      <c r="L19" s="53"/>
-      <c r="M19" s="22">
+      <c r="L19" s="6"/>
+      <c r="M19" s="7">
         <v>90</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22">
+      <c r="N19" s="7"/>
+      <c r="O19" s="7">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="P19" s="22"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>12</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="53">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6">
         <v>1</v>
       </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="22">
+      <c r="L20" s="6"/>
+      <c r="M20" s="7">
         <v>50</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22">
+      <c r="N20" s="7"/>
+      <c r="O20" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="P20" s="22"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" s="2">
         <v>13</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="53">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6">
         <v>1</v>
       </c>
-      <c r="L21" s="53"/>
-      <c r="M21" s="22">
+      <c r="L21" s="6"/>
+      <c r="M21" s="7">
         <v>100</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22">
+      <c r="N21" s="7"/>
+      <c r="O21" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="P21" s="22"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" s="2">
         <v>14</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12">
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="30">
         <v>1</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="7">
+      <c r="L22" s="31"/>
+      <c r="M22" s="26">
         <v>300</v>
       </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="7">
+      <c r="N22" s="27"/>
+      <c r="O22" s="26">
         <f t="shared" ref="O22" si="4">SUM(K22*M22)</f>
         <v>300</v>
       </c>
-      <c r="P22" s="8"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" s="2">
         <v>15</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12">
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="30">
         <v>1</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="7">
+      <c r="L23" s="31"/>
+      <c r="M23" s="26">
         <v>700</v>
       </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="7">
+      <c r="N23" s="27"/>
+      <c r="O23" s="26">
         <f t="shared" ref="O23" si="5">SUM(K23*M23)</f>
         <v>700</v>
       </c>
-      <c r="P23" s="8"/>
+      <c r="P23" s="27"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <v>14</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="53">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6">
         <v>1</v>
       </c>
-      <c r="L24" s="53"/>
-      <c r="M24" s="22">
+      <c r="L24" s="6"/>
+      <c r="M24" s="7">
         <v>25</v>
       </c>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22">
+      <c r="N24" s="7"/>
+      <c r="O24" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P24" s="22"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D25" s="4">
         <v>15</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="54">
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="28">
         <v>1</v>
       </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="20">
+      <c r="L25" s="29"/>
+      <c r="M25" s="46">
         <v>1500</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="20">
+      <c r="N25" s="47"/>
+      <c r="O25" s="46">
         <v>1500</v>
       </c>
-      <c r="P25" s="21"/>
+      <c r="P25" s="47"/>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
         <v>16</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="53">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6">
         <v>1</v>
       </c>
-      <c r="L26" s="53"/>
-      <c r="M26" s="22">
+      <c r="L26" s="6"/>
+      <c r="M26" s="7">
         <v>315</v>
       </c>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22">
+      <c r="N26" s="7"/>
+      <c r="O26" s="7">
         <f t="shared" ref="O26" si="6">SUM(K26*M26)</f>
         <v>315</v>
       </c>
-      <c r="P26" s="22"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
         <v>17</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="53">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6">
         <v>1</v>
       </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="22">
+      <c r="L27" s="6"/>
+      <c r="M27" s="7">
         <v>100</v>
       </c>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22">
+      <c r="N27" s="7"/>
+      <c r="O27" s="7">
         <f t="shared" ref="O27" si="7">SUM(K27*M27)</f>
         <v>100</v>
       </c>
-      <c r="P27" s="22"/>
+      <c r="P27" s="7"/>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K28" s="36" t="s">
+      <c r="D28" s="1">
+        <v>18</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7">
+        <v>1100</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7">
+        <f t="shared" ref="O28" si="8">SUM(K28*M28)</f>
+        <v>1100</v>
+      </c>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D29" s="1">
+        <v>19</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6">
+        <v>2</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7">
+        <v>150</v>
+      </c>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7">
+        <f t="shared" ref="O29" si="9">SUM(K29*M29)</f>
+        <v>300</v>
+      </c>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="K30" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="38">
-        <f>SUM(O8:P27)</f>
-        <v>7070</v>
-      </c>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-    </row>
-    <row r="29" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="43"/>
-    </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K30" s="23" t="s">
+      <c r="L30" s="49"/>
+      <c r="M30" s="50">
+        <f>SUM(O8:P29)</f>
+        <v>8470</v>
+      </c>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
+    </row>
+    <row r="31" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="55"/>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="K32" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="24"/>
-      <c r="M30" s="44">
-        <f>SUM(M28/6+52.5)</f>
-        <v>1230.8333333333333</v>
-      </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="46"/>
-    </row>
-    <row r="31" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K31" s="25"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="49"/>
-    </row>
-    <row r="33" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E34" s="50" t="s">
+      <c r="L32" s="40"/>
+      <c r="M32" s="56">
+        <f>SUM(M30/6+52.5)</f>
+        <v>1464.1666666666667</v>
+      </c>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="58"/>
+    </row>
+    <row r="33" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="41"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="61"/>
+    </row>
+    <row r="35" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E36" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F36" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27" t="s">
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27" t="s">
+      <c r="K36" s="34"/>
+      <c r="L36" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27" t="s">
+      <c r="M36" s="34"/>
+      <c r="N36" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="28"/>
-    </row>
-    <row r="35" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="51"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="30"/>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E36" s="2">
+      <c r="O36" s="43"/>
+    </row>
+    <row r="37" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="33"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="44"/>
+    </row>
+    <row r="38" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E38" s="2">
         <v>1</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F38" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="31">
-        <f>SUM(M28/6+52.5)</f>
-        <v>1230.8333333333333</v>
-      </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="34">
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="36">
+        <f>SUM(M30/6+52.5)</f>
+        <v>1464.1666666666667</v>
+      </c>
+      <c r="K38" s="36"/>
+      <c r="L38" s="18">
         <v>0</v>
       </c>
-      <c r="M36" s="34"/>
-      <c r="N36" s="31">
-        <f>SUM(J36-L36)</f>
-        <v>1230.8333333333333</v>
-      </c>
-      <c r="O36" s="31"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E37" s="1">
+      <c r="M38" s="18"/>
+      <c r="N38" s="36">
+        <f>SUM(J38-L38)</f>
+        <v>1464.1666666666667</v>
+      </c>
+      <c r="O38" s="36"/>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E39" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F39" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="31">
-        <f>SUM(M28/6+52.5)</f>
-        <v>1230.8333333333333</v>
-      </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="22">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="36">
+        <f>SUM(M30/6+52.5)</f>
+        <v>1464.1666666666667</v>
+      </c>
+      <c r="K39" s="36"/>
+      <c r="L39" s="7">
         <v>0</v>
       </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="32">
-        <f t="shared" ref="N37:N41" si="8">SUM(J37-L37)</f>
-        <v>1230.8333333333333</v>
-      </c>
-      <c r="O37" s="32"/>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E38" s="1">
+      <c r="M39" s="7"/>
+      <c r="N39" s="37">
+        <f t="shared" ref="N39:N43" si="10">SUM(J39-L39)</f>
+        <v>1464.1666666666667</v>
+      </c>
+      <c r="O39" s="37"/>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="F40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="32">
-        <f>SUM(M28/6+52.5)</f>
-        <v>1230.8333333333333</v>
-      </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="22">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="37">
+        <f>SUM(M30/6+52.5)</f>
+        <v>1464.1666666666667</v>
+      </c>
+      <c r="K40" s="37"/>
+      <c r="L40" s="7">
         <v>5000</v>
       </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="32">
-        <f t="shared" si="8"/>
-        <v>-3769.166666666667</v>
-      </c>
-      <c r="O38" s="32"/>
-    </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E39" s="1">
+      <c r="M40" s="7"/>
+      <c r="N40" s="37">
+        <f t="shared" si="10"/>
+        <v>-3535.833333333333</v>
+      </c>
+      <c r="O40" s="37"/>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E41" s="1">
         <v>4</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="32">
-        <f>SUM(M28/6+52.5)</f>
-        <v>1230.8333333333333</v>
-      </c>
-      <c r="K39" s="32"/>
-      <c r="L39" s="22">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="37">
+        <f>SUM(M30/6+52.5)</f>
+        <v>1464.1666666666667</v>
+      </c>
+      <c r="K41" s="37"/>
+      <c r="L41" s="7">
         <v>5000</v>
       </c>
-      <c r="M39" s="22"/>
-      <c r="N39" s="32">
-        <f t="shared" si="8"/>
-        <v>-3769.166666666667</v>
-      </c>
-      <c r="O39" s="32"/>
-    </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E40" s="1">
+      <c r="M41" s="7"/>
+      <c r="N41" s="37">
+        <f t="shared" si="10"/>
+        <v>-3535.833333333333</v>
+      </c>
+      <c r="O41" s="37"/>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E42" s="1">
         <v>5</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="F42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="32">
-        <f>SUM(M28/6+52.5)</f>
-        <v>1230.8333333333333</v>
-      </c>
-      <c r="K40" s="32"/>
-      <c r="L40" s="22">
-        <v>0</v>
-      </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="32">
-        <f t="shared" si="8"/>
-        <v>1230.8333333333333</v>
-      </c>
-      <c r="O40" s="32"/>
-    </row>
-    <row r="41" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="1">
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="37">
+        <f>SUM(M30/6+52.5)</f>
+        <v>1464.1666666666667</v>
+      </c>
+      <c r="K42" s="37"/>
+      <c r="L42" s="7">
+        <v>2000</v>
+      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="37">
+        <f t="shared" si="10"/>
+        <v>-535.83333333333326</v>
+      </c>
+      <c r="O42" s="37"/>
+    </row>
+    <row r="43" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="1">
         <v>6</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="33">
-        <f>SUM(M28/6+52.5)</f>
-        <v>1230.8333333333333</v>
-      </c>
-      <c r="K41" s="33"/>
-      <c r="L41" s="35">
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="38">
+        <f>SUM(M30/6+52.5)</f>
+        <v>1464.1666666666667</v>
+      </c>
+      <c r="K43" s="38"/>
+      <c r="L43" s="45">
         <v>4000</v>
       </c>
-      <c r="M41" s="35"/>
-      <c r="N41" s="33">
-        <f t="shared" si="8"/>
-        <v>-2769.166666666667</v>
-      </c>
-      <c r="O41" s="33"/>
-    </row>
-    <row r="42" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J42" s="68">
-        <f>SUM(J36:K41)</f>
-        <v>7384.9999999999991</v>
-      </c>
-      <c r="K42" s="69"/>
-      <c r="L42" s="70">
-        <f>SUM(L36:M41)</f>
-        <v>14000</v>
-      </c>
-      <c r="M42" s="69"/>
-      <c r="N42" s="68">
-        <f>SUM(N36,N37,N40)</f>
-        <v>3692.5</v>
-      </c>
-      <c r="O42" s="69"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="38">
+        <f t="shared" si="10"/>
+        <v>-2535.833333333333</v>
+      </c>
+      <c r="O43" s="38"/>
+    </row>
+    <row r="44" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J44" s="62">
+        <f>SUM(J38:K43)</f>
+        <v>8785</v>
+      </c>
+      <c r="K44" s="63"/>
+      <c r="L44" s="64">
+        <f>SUM(L38:M43)</f>
+        <v>16000</v>
+      </c>
+      <c r="M44" s="63"/>
+      <c r="N44" s="62">
+        <f>SUM(N38,N39,N42)</f>
+        <v>2392.5</v>
+      </c>
+      <c r="O44" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="130">
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="H2:L3"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:P31"/>
+    <mergeCell ref="M32:P33"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="L36:M37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E13:J13"/>
     <mergeCell ref="E27:J27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
@@ -1926,104 +2090,6 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="J34:K35"/>
-    <mergeCell ref="L34:M35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="N34:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="M28:P29"/>
-    <mergeCell ref="M30:P31"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="H2:L3"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inferno/Logs/Expense Sheet Infernos.xlsx
+++ b/Inferno/Logs/Expense Sheet Infernos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsal\OneDrive\Desktop\TechWiz-IOT-2023-main\Inferno\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58769A51-606A-42F3-938A-1547C6890B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B385B9-D06E-42AD-A07B-90BAC7FADC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D07FA7E-AA25-4F52-8BD3-74FFB8589F97}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Item</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Audio Sensor</t>
+  </si>
+  <si>
+    <t>Puncture</t>
+  </si>
+  <si>
+    <t>LCD Covering</t>
   </si>
 </sst>
 </file>
@@ -552,6 +558,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,9 +738,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -593,153 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8048F-48C1-4FDE-BDFC-CCC4E181859D}">
-  <dimension ref="D1:P44"/>
+  <dimension ref="D1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38:M38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,104 +1074,104 @@
   <sheetData>
     <row r="1" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="67"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="8" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="8" t="s">
+      <c r="L5" s="60"/>
+      <c r="M5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="8" t="s">
+      <c r="N5" s="60"/>
+      <c r="O5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="10"/>
+      <c r="P5" s="60"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="63"/>
     </row>
     <row r="7" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="66"/>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="22">
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="55">
         <v>2</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="18">
+      <c r="L8" s="55"/>
+      <c r="M8" s="37">
         <v>220</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18">
+      <c r="N8" s="37"/>
+      <c r="O8" s="37">
         <f>SUM(K8*M8)</f>
         <v>440</v>
       </c>
-      <c r="P8" s="18"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
@@ -1223,22 +1229,22 @@
       <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="30">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16">
         <v>2</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="26">
+      <c r="L11" s="17"/>
+      <c r="M11" s="11">
         <v>170</v>
       </c>
-      <c r="N11" s="27"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="7">
         <f t="shared" ref="O11" si="1">SUM(K11*M11)</f>
         <v>340</v>
@@ -1275,27 +1281,27 @@
       <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="30">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16">
         <v>1</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="26">
+      <c r="L13" s="17"/>
+      <c r="M13" s="11">
         <v>350</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="26">
+      <c r="N13" s="12"/>
+      <c r="O13" s="11">
         <f t="shared" ref="O13" si="2">SUM(K13*M13)</f>
         <v>350</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="12"/>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
@@ -1405,27 +1411,27 @@
       <c r="D18" s="1">
         <v>10</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="30">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16">
         <v>1</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="26">
+      <c r="L18" s="17"/>
+      <c r="M18" s="11">
         <v>20</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="26">
+      <c r="N18" s="12"/>
+      <c r="O18" s="11">
         <f t="shared" ref="O18" si="3">SUM(K18*M18)</f>
         <v>20</v>
       </c>
-      <c r="P18" s="27"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
@@ -1509,53 +1515,53 @@
       <c r="D22" s="2">
         <v>14</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="30">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16">
         <v>1</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="26">
+      <c r="L22" s="17"/>
+      <c r="M22" s="11">
         <v>300</v>
       </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="26">
+      <c r="N22" s="12"/>
+      <c r="O22" s="11">
         <f t="shared" ref="O22" si="4">SUM(K22*M22)</f>
         <v>300</v>
       </c>
-      <c r="P22" s="27"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" s="2">
         <v>15</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="30">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16">
         <v>1</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="26">
+      <c r="L23" s="17"/>
+      <c r="M23" s="11">
         <v>700</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="26">
+      <c r="N23" s="12"/>
+      <c r="O23" s="11">
         <f t="shared" ref="O23" si="5">SUM(K23*M23)</f>
         <v>700</v>
       </c>
-      <c r="P23" s="27"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
@@ -1587,26 +1593,26 @@
       <c r="D25" s="4">
         <v>15</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="28">
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="56">
         <v>1</v>
       </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="46">
+      <c r="L25" s="57"/>
+      <c r="M25" s="24">
         <v>1500</v>
       </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="46">
+      <c r="N25" s="25"/>
+      <c r="O25" s="24">
         <v>1500</v>
       </c>
-      <c r="P25" s="47"/>
+      <c r="P25" s="25"/>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
@@ -1713,359 +1719,313 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="K30" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="50">
-        <f>SUM(O8:P29)</f>
-        <v>8470</v>
-      </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
-    </row>
-    <row r="31" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="55"/>
+      <c r="D30" s="1">
+        <v>20</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="7">
+        <v>650</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7">
+        <f t="shared" ref="O30" si="10">SUM(K30*M30)</f>
+        <v>650</v>
+      </c>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D31" s="1">
+        <v>21</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6">
+        <v>1</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="7">
+        <v>40</v>
+      </c>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7">
+        <f t="shared" ref="O31" si="11">SUM(K31*M31)</f>
+        <v>40</v>
+      </c>
+      <c r="P31" s="7"/>
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.3">
       <c r="K32" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41">
+        <f>SUM(O8:P31)</f>
+        <v>9160</v>
+      </c>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="43"/>
+    </row>
+    <row r="33" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="46"/>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="K34" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="56">
-        <f>SUM(M30/6+52.5)</f>
-        <v>1464.1666666666667</v>
-      </c>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="58"/>
-    </row>
-    <row r="33" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="41"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="61"/>
-    </row>
-    <row r="35" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="32" t="s">
+      <c r="L34" s="27"/>
+      <c r="M34" s="47">
+        <f>SUM(M32/6+52.5)</f>
+        <v>1579.1666666666667</v>
+      </c>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="49"/>
+    </row>
+    <row r="35" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="52"/>
+    </row>
+    <row r="37" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F38" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34" t="s">
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34" t="s">
+      <c r="K38" s="30"/>
+      <c r="L38" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34" t="s">
+      <c r="M38" s="30"/>
+      <c r="N38" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="43"/>
-    </row>
-    <row r="37" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E37" s="33"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="44"/>
-    </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="2">
+      <c r="O38" s="31"/>
+    </row>
+    <row r="39" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="54"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="33"/>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F40" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="36">
-        <f>SUM(M30/6+52.5)</f>
-        <v>1464.1666666666667</v>
-      </c>
-      <c r="K38" s="36"/>
-      <c r="L38" s="18">
-        <v>0</v>
-      </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="36">
-        <f>SUM(J38-L38)</f>
-        <v>1464.1666666666667</v>
-      </c>
-      <c r="O38" s="36"/>
-    </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="36">
-        <f>SUM(M30/6+52.5)</f>
-        <v>1464.1666666666667</v>
-      </c>
-      <c r="K39" s="36"/>
-      <c r="L39" s="7">
-        <v>0</v>
-      </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="37">
-        <f t="shared" ref="N39:N43" si="10">SUM(J39-L39)</f>
-        <v>1464.1666666666667</v>
-      </c>
-      <c r="O39" s="37"/>
-    </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="1">
-        <v>3</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="37">
-        <f>SUM(M30/6+52.5)</f>
-        <v>1464.1666666666667</v>
-      </c>
-      <c r="K40" s="37"/>
-      <c r="L40" s="7">
-        <v>5000</v>
-      </c>
-      <c r="M40" s="7"/>
-      <c r="N40" s="37">
-        <f t="shared" si="10"/>
-        <v>-3535.833333333333</v>
-      </c>
-      <c r="O40" s="37"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="34">
+        <f>SUM(M32/6+52.5)</f>
+        <v>1579.1666666666667</v>
+      </c>
+      <c r="K40" s="34"/>
+      <c r="L40" s="37">
+        <v>1000</v>
+      </c>
+      <c r="M40" s="37"/>
+      <c r="N40" s="34">
+        <f>SUM(J40-L40)</f>
+        <v>579.16666666666674</v>
+      </c>
+      <c r="O40" s="34"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E41" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="37">
-        <f>SUM(M30/6+52.5)</f>
-        <v>1464.1666666666667</v>
-      </c>
-      <c r="K41" s="37"/>
+      <c r="J41" s="34">
+        <f>SUM(M32/6+52.5)</f>
+        <v>1579.1666666666667</v>
+      </c>
+      <c r="K41" s="34"/>
       <c r="L41" s="7">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="M41" s="7"/>
-      <c r="N41" s="37">
-        <f t="shared" si="10"/>
-        <v>-3535.833333333333</v>
-      </c>
-      <c r="O41" s="37"/>
+      <c r="N41" s="35">
+        <f t="shared" ref="N41:N45" si="12">SUM(J41-L41)</f>
+        <v>1579.1666666666667</v>
+      </c>
+      <c r="O41" s="35"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E42" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="37">
-        <f>SUM(M30/6+52.5)</f>
-        <v>1464.1666666666667</v>
-      </c>
-      <c r="K42" s="37"/>
+      <c r="J42" s="35">
+        <f>SUM(M32/6+52.5)</f>
+        <v>1579.1666666666667</v>
+      </c>
+      <c r="K42" s="35"/>
       <c r="L42" s="7">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M42" s="7"/>
-      <c r="N42" s="37">
-        <f t="shared" si="10"/>
-        <v>-535.83333333333326</v>
-      </c>
-      <c r="O42" s="37"/>
-    </row>
-    <row r="43" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N42" s="35">
+        <f t="shared" si="12"/>
+        <v>-3420.833333333333</v>
+      </c>
+      <c r="O42" s="35"/>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E43" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="38">
-        <f>SUM(M30/6+52.5)</f>
-        <v>1464.1666666666667</v>
-      </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="45">
+      <c r="J43" s="35">
+        <f>SUM(M32/6+52.5)</f>
+        <v>1579.1666666666667</v>
+      </c>
+      <c r="K43" s="35"/>
+      <c r="L43" s="7">
+        <v>5000</v>
+      </c>
+      <c r="M43" s="7"/>
+      <c r="N43" s="35">
+        <f t="shared" si="12"/>
+        <v>-3420.833333333333</v>
+      </c>
+      <c r="O43" s="35"/>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="35">
+        <f>SUM(M32/6+52.5)</f>
+        <v>1579.1666666666667</v>
+      </c>
+      <c r="K44" s="35"/>
+      <c r="L44" s="7">
+        <v>2000</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="35">
+        <f t="shared" si="12"/>
+        <v>-420.83333333333326</v>
+      </c>
+      <c r="O44" s="35"/>
+    </row>
+    <row r="45" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="1">
+        <v>6</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="36">
+        <f>SUM(M32/6+52.5)</f>
+        <v>1579.1666666666667</v>
+      </c>
+      <c r="K45" s="36"/>
+      <c r="L45" s="38">
         <v>4000</v>
       </c>
-      <c r="M43" s="45"/>
-      <c r="N43" s="38">
-        <f t="shared" si="10"/>
-        <v>-2535.833333333333</v>
-      </c>
-      <c r="O43" s="38"/>
-    </row>
-    <row r="44" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J44" s="62">
-        <f>SUM(J38:K43)</f>
-        <v>8785</v>
-      </c>
-      <c r="K44" s="63"/>
-      <c r="L44" s="64">
-        <f>SUM(L38:M43)</f>
-        <v>16000</v>
-      </c>
-      <c r="M44" s="63"/>
-      <c r="N44" s="62">
-        <f>SUM(N38,N39,N42)</f>
-        <v>2392.5</v>
-      </c>
-      <c r="O44" s="63"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="36">
+        <f t="shared" si="12"/>
+        <v>-2420.833333333333</v>
+      </c>
+      <c r="O45" s="36"/>
+    </row>
+    <row r="46" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J46" s="8">
+        <f>SUM(J40:K45)</f>
+        <v>9475</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10">
+        <f>SUM(L40:M45)</f>
+        <v>17000</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="8">
+        <f>SUM(N40,N41,N44)</f>
+        <v>1737.5000000000002</v>
+      </c>
+      <c r="O46" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="H2:L3"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:P31"/>
-    <mergeCell ref="M32:P33"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="L36:M37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E13:J13"/>
+  <mergeCells count="138">
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
     <mergeCell ref="E27:J27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
@@ -2090,6 +2050,112 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="J38:K39"/>
+    <mergeCell ref="L38:M39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F38:I39"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="M32:P33"/>
+    <mergeCell ref="M34:P35"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="H2:L3"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="N38:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
